--- a/Excel-XLSX/UN-BGD.xlsx
+++ b/Excel-XLSX/UN-BGD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,595 @@
     <t>1</t>
   </si>
   <si>
-    <t>sdEcN2</t>
+    <t>K2jlXn</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>472000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>174850</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>150680</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>244994</t>
+  </si>
+  <si>
+    <t>8530</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>198823</t>
+  </si>
+  <si>
+    <t>46129</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>116074</t>
+  </si>
+  <si>
+    <t>85300</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>50985</t>
+  </si>
+  <si>
+    <t>61504</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>30578</t>
+  </si>
+  <si>
+    <t>23046</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>21497</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>22174</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>22131</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>21556</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>22106</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>21967</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>19743</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>20402</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>21053</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>26268</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>27544</t>
+  </si>
+  <si>
+    <t>28337</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>228557</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>229226</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>229644</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>230674</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>231125</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>232462</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>231948</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>276198</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>932204</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>906635</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>854764</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>866518</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>918898</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>952365</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>961787</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>1974</t>
@@ -102,49 +690,244 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BGD</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>104320</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>160000</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>854704</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>866457</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>918841</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>952309</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>961729</t>
+  </si>
+  <si>
+    <t>144</t>
   </si>
   <si>
     <t>262</t>
@@ -156,784 +939,19 @@
     <t>UKN</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>4000</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>150680</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>145</t>
   </si>
   <si>
     <t>1990</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>244994</t>
-  </si>
-  <si>
-    <t>8530</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>198823</t>
-  </si>
-  <si>
-    <t>46129</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>116074</t>
-  </si>
-  <si>
-    <t>85300</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>50985</t>
-  </si>
-  <si>
-    <t>61504</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>30578</t>
-  </si>
-  <si>
-    <t>23046</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>21497</t>
-  </si>
-  <si>
-    <t>10070</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>22174</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>22131</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>21556</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>22106</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>21967</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>19743</t>
-  </si>
-  <si>
-    <t>3231</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>20402</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>21053</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>26268</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>27544</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>28337</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>228557</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>229226</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>229644</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>230674</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>231125</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>232462</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>231948</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>276198</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>932204</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>906635</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>854764</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>854704</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>472000</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>866518</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>866457</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>174850</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>918898</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>918841</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>50060</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>929662</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>929606</t>
+    <t>146</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1336,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1438,10 +1456,10 @@
         <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>31</v>
@@ -1458,8 +1476,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1473,22 +1491,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1503,13 +1521,13 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>31</v>
@@ -1541,22 +1559,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1571,7 +1589,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>31</v>
@@ -1595,7 +1613,7 @@
         <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1609,61 +1627,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1677,22 +1695,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1707,7 +1725,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>31</v>
@@ -1731,7 +1749,7 @@
         <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -1745,61 +1763,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1813,22 +1831,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1843,10 +1861,10 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>31</v>
@@ -1866,8 +1884,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>31</v>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1881,22 +1899,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1911,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
@@ -1934,8 +1952,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>31</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1949,22 +1967,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1979,13 +1997,13 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>31</v>
@@ -2002,8 +2020,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>31</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -2017,22 +2035,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -2047,10 +2065,10 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
@@ -2070,8 +2088,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>31</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -2085,22 +2103,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -2115,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>31</v>
@@ -2138,8 +2156,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>31</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -2153,22 +2171,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2183,13 +2201,13 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>31</v>
@@ -2206,8 +2224,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>31</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2221,22 +2239,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2251,7 +2269,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>31</v>
@@ -2274,8 +2292,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>31</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2289,22 +2307,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2319,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>31</v>
@@ -2342,8 +2360,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>31</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2357,22 +2375,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2387,7 +2405,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>31</v>
@@ -2410,8 +2428,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>31</v>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2425,22 +2443,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2455,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
@@ -2478,8 +2496,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>31</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2493,22 +2511,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2523,13 +2541,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>31</v>
@@ -2546,8 +2564,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>31</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2561,22 +2579,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2591,13 +2609,13 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>31</v>
@@ -2614,8 +2632,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>31</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2629,22 +2647,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2659,7 +2677,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>31</v>
@@ -2682,8 +2700,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>31</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2700,19 +2718,19 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2727,7 +2745,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>31</v>
@@ -2750,8 +2768,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>31</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2765,22 +2783,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2795,7 +2813,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>31</v>
@@ -2818,8 +2836,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>31</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2833,22 +2851,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2863,13 +2881,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>31</v>
@@ -2886,8 +2904,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>31</v>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2901,22 +2919,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2931,7 +2949,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>31</v>
@@ -2954,8 +2972,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>31</v>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2969,22 +2987,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2999,7 +3017,7 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>31</v>
@@ -3022,8 +3040,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>31</v>
+      <c r="V25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -3037,22 +3055,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -3067,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>31</v>
@@ -3090,8 +3108,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>31</v>
+      <c r="V26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -3105,22 +3123,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -3135,13 +3153,13 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>31</v>
@@ -3158,8 +3176,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>31</v>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3173,22 +3191,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3203,13 +3221,13 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>31</v>
@@ -3226,8 +3244,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>31</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3241,22 +3259,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3271,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>31</v>
@@ -3294,8 +3312,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>31</v>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3309,22 +3327,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3339,7 +3357,7 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>31</v>
@@ -3362,8 +3380,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>31</v>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3377,22 +3395,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3407,13 +3425,13 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>31</v>
@@ -3430,8 +3448,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>31</v>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3445,22 +3463,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3475,7 +3493,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>31</v>
@@ -3498,8 +3516,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>31</v>
+      <c r="V32" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3513,22 +3531,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3543,7 +3561,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>31</v>
@@ -3566,8 +3584,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>31</v>
+      <c r="V33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3581,22 +3599,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3611,10 +3629,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>31</v>
@@ -3634,8 +3652,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>31</v>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3649,22 +3667,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3679,13 +3697,13 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>31</v>
@@ -3702,8 +3720,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>31</v>
+      <c r="V35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3717,22 +3735,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3747,7 +3765,7 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>31</v>
@@ -3770,8 +3788,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>31</v>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3785,22 +3803,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3815,7 +3833,7 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>31</v>
@@ -3838,8 +3856,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>31</v>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3853,22 +3871,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3883,7 +3901,7 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>31</v>
@@ -3906,8 +3924,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>31</v>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3921,22 +3939,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3951,7 +3969,7 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>31</v>
@@ -3974,8 +3992,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>31</v>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3989,22 +4007,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -4019,13 +4037,13 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>31</v>
@@ -4042,8 +4060,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>31</v>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -4057,22 +4075,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4087,10 +4105,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>31</v>
@@ -4110,8 +4128,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>31</v>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -4125,22 +4143,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4155,13 +4173,13 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>31</v>
@@ -4178,8 +4196,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>31</v>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4193,22 +4211,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4223,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>31</v>
@@ -4246,8 +4264,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>31</v>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -4261,22 +4279,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4291,13 +4309,13 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>31</v>
@@ -4314,8 +4332,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>31</v>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -4329,22 +4347,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4359,7 +4377,7 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>31</v>
@@ -4382,8 +4400,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>31</v>
+      <c r="V45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4397,22 +4415,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4427,13 +4445,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>31</v>
@@ -4450,8 +4468,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>31</v>
+      <c r="V46" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4465,22 +4483,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4495,7 +4513,7 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>31</v>
@@ -4518,8 +4536,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>31</v>
+      <c r="V47" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4533,22 +4551,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4563,13 +4581,13 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>31</v>
@@ -4586,8 +4604,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>31</v>
+      <c r="V48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4601,22 +4619,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4631,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>31</v>
@@ -4654,8 +4672,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>31</v>
+      <c r="V49" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4669,22 +4687,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4699,7 +4717,7 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>31</v>
@@ -4722,8 +4740,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>31</v>
+      <c r="V50" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4737,22 +4755,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4767,13 +4785,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>31</v>
@@ -4790,8 +4808,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>31</v>
+      <c r="V51" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4805,22 +4823,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4835,13 +4853,13 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>31</v>
@@ -4858,8 +4876,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>31</v>
+      <c r="V52" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4873,22 +4891,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4903,7 +4921,7 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>31</v>
@@ -4926,8 +4944,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>31</v>
+      <c r="V53" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4941,22 +4959,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4971,13 +4989,13 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>31</v>
@@ -4994,8 +5012,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>31</v>
+      <c r="V54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -5009,22 +5027,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -5039,13 +5057,13 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>31</v>
@@ -5062,8 +5080,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>31</v>
+      <c r="V55" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -5077,22 +5095,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5107,13 +5125,13 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>31</v>
@@ -5130,8 +5148,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>31</v>
+      <c r="V56" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -5145,22 +5163,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5175,13 +5193,13 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>31</v>
@@ -5198,8 +5216,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>31</v>
+      <c r="V57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5213,22 +5231,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5243,13 +5261,13 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>31</v>
@@ -5266,8 +5284,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>31</v>
+      <c r="V58" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5281,22 +5299,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5311,13 +5329,13 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>31</v>
@@ -5334,8 +5352,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>31</v>
+      <c r="V59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5349,22 +5367,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5379,13 +5397,13 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>31</v>
@@ -5402,8 +5420,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>31</v>
+      <c r="V60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5417,22 +5435,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5447,13 +5465,13 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>31</v>
@@ -5470,8 +5488,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>31</v>
+      <c r="V61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5485,22 +5503,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5515,13 +5533,13 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>31</v>
@@ -5538,8 +5556,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>31</v>
+      <c r="V62" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5553,22 +5571,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5583,13 +5601,13 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>31</v>
@@ -5598,7 +5616,7 @@
         <v>31</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>31</v>
@@ -5606,8 +5624,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>31</v>
+      <c r="V63" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5621,22 +5639,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5651,13 +5669,13 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>31</v>
@@ -5674,8 +5692,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>31</v>
+      <c r="V64" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5689,22 +5707,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5719,13 +5737,13 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>31</v>
@@ -5742,8 +5760,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>31</v>
+      <c r="V65" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5757,22 +5775,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5787,13 +5805,13 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>31</v>
@@ -5810,8 +5828,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>31</v>
+      <c r="V66" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5825,22 +5843,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5855,13 +5873,13 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>31</v>
@@ -5878,8 +5896,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>31</v>
+      <c r="V67" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5893,22 +5911,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5923,10 +5941,10 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>31</v>
@@ -5946,8 +5964,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>31</v>
+      <c r="V68" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5961,22 +5979,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5991,10 +6009,10 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>31</v>
@@ -6006,7 +6024,7 @@
         <v>31</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>31</v>
@@ -6014,8 +6032,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="2" t="s">
-        <v>31</v>
+      <c r="V69" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -6029,22 +6047,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -6059,10 +6077,10 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>31</v>
@@ -6082,8 +6100,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>31</v>
+      <c r="V70" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -6097,22 +6115,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6127,7 +6145,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>31</v>
@@ -6150,8 +6168,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>31</v>
+      <c r="V71" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6165,22 +6183,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6195,10 +6213,10 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>31</v>
@@ -6218,8 +6236,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>31</v>
+      <c r="V72" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6233,22 +6251,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6263,10 +6281,10 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>31</v>
@@ -6286,8 +6304,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>31</v>
+      <c r="V73" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -6301,22 +6319,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6331,7 +6349,7 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>31</v>
@@ -6354,8 +6372,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>31</v>
+      <c r="V74" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -6369,22 +6387,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6399,13 +6417,13 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>31</v>
@@ -6414,7 +6432,7 @@
         <v>31</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>31</v>
@@ -6422,8 +6440,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>31</v>
+      <c r="V75" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -6437,22 +6455,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6467,7 +6485,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>53</v>
@@ -6490,8 +6508,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>31</v>
+      <c r="V76" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6505,38 +6523,38 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="O77" s="2" t="s">
         <v>31</v>
       </c>
@@ -6558,8 +6576,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>31</v>
+      <c r="V77" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6573,22 +6591,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6603,10 +6621,10 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>31</v>
@@ -6626,8 +6644,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>31</v>
+      <c r="V78" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -6641,22 +6659,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6671,10 +6689,10 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>31</v>
@@ -6694,8 +6712,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>31</v>
+      <c r="V79" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -6709,22 +6727,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6739,10 +6757,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>31</v>
@@ -6762,8 +6780,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>31</v>
+      <c r="V80" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6777,22 +6795,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6807,7 +6825,7 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>31</v>
@@ -6830,8 +6848,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="2" t="s">
-        <v>31</v>
+      <c r="V81" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6845,22 +6863,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6875,7 +6893,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>31</v>
@@ -6898,8 +6916,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="2" t="s">
-        <v>31</v>
+      <c r="V82" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6913,22 +6931,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6943,7 +6961,7 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>31</v>
@@ -6966,8 +6984,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="2" t="s">
-        <v>31</v>
+      <c r="V83" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -6981,22 +6999,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -7011,10 +7029,10 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>31</v>
@@ -7049,22 +7067,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -7079,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>31</v>
@@ -7117,22 +7135,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7147,13 +7165,13 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>31</v>
@@ -7170,8 +7188,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="2" t="s">
-        <v>31</v>
+      <c r="V86" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7185,22 +7203,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7215,10 +7233,10 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>31</v>
@@ -7238,8 +7256,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>31</v>
+      <c r="V87" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7253,22 +7271,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7283,7 +7301,7 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>31</v>
@@ -7306,8 +7324,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>31</v>
+      <c r="V88" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7321,22 +7339,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7351,7 +7369,7 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>31</v>
@@ -7374,8 +7392,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>31</v>
+      <c r="V89" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -7389,22 +7407,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7419,7 +7437,7 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>31</v>
@@ -7442,8 +7460,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>31</v>
+      <c r="V90" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -7457,22 +7475,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7487,7 +7505,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>31</v>
@@ -7510,8 +7528,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="2" t="s">
-        <v>31</v>
+      <c r="V91" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -7525,22 +7543,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7555,7 +7573,7 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>31</v>
@@ -7578,8 +7596,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>31</v>
+      <c r="V92" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -7593,22 +7611,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7623,7 +7641,7 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>31</v>
@@ -7646,8 +7664,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="2" t="s">
-        <v>31</v>
+      <c r="V93" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -7661,22 +7679,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7691,7 +7709,7 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>31</v>
@@ -7714,8 +7732,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="2" t="s">
-        <v>31</v>
+      <c r="V94" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -7729,22 +7747,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7759,7 +7777,7 @@
         <v>30</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>31</v>
@@ -7782,8 +7800,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="2" t="s">
-        <v>31</v>
+      <c r="V95" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -7797,22 +7815,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7827,7 +7845,7 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>31</v>
@@ -7850,8 +7868,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="2" t="s">
-        <v>31</v>
+      <c r="V96" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -7865,22 +7883,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7895,7 +7913,7 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>31</v>
@@ -7918,8 +7936,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>31</v>
+      <c r="V97" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -7933,22 +7951,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7963,7 +7981,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>31</v>
@@ -7986,8 +8004,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="2" t="s">
-        <v>31</v>
+      <c r="V98" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -8001,22 +8019,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -8031,13 +8049,13 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>31</v>
@@ -8054,8 +8072,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="2" t="s">
-        <v>31</v>
+      <c r="V99" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -8069,22 +8087,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -8099,7 +8117,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>31</v>
@@ -8122,8 +8140,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="2" t="s">
-        <v>31</v>
+      <c r="V100" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -8137,22 +8155,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8167,13 +8185,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>31</v>
@@ -8190,8 +8208,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>31</v>
+      <c r="V101" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8205,22 +8223,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8235,7 +8253,7 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>31</v>
@@ -8258,8 +8276,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="2" t="s">
-        <v>31</v>
+      <c r="V102" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8273,22 +8291,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8303,7 +8321,7 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>31</v>
@@ -8326,8 +8344,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="2" t="s">
-        <v>31</v>
+      <c r="V103" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8341,22 +8359,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8371,13 +8389,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>31</v>
@@ -8394,8 +8412,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="2" t="s">
-        <v>31</v>
+      <c r="V104" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -8409,22 +8427,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G105" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8439,13 +8457,13 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>31</v>
@@ -8462,8 +8480,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="2" t="s">
-        <v>31</v>
+      <c r="V105" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -8477,22 +8495,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I106" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8507,7 +8525,7 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>31</v>
@@ -8530,8 +8548,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>31</v>
+      <c r="V106" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -8545,22 +8563,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8575,10 +8593,10 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>31</v>
@@ -8598,8 +8616,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="2" t="s">
-        <v>31</v>
+      <c r="V107" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -8613,22 +8631,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8643,14 +8661,14 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P108" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O108" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Q108" s="2" t="s">
         <v>31</v>
       </c>
@@ -8666,8 +8684,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="2" t="s">
-        <v>31</v>
+      <c r="V108" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -8681,22 +8699,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8711,7 +8729,7 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>31</v>
@@ -8734,8 +8752,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="2" t="s">
-        <v>31</v>
+      <c r="V109" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -8749,22 +8767,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8779,7 +8797,7 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>31</v>
@@ -8802,8 +8820,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="2" t="s">
-        <v>31</v>
+      <c r="V110" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -8817,22 +8835,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8847,7 +8865,7 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>31</v>
@@ -8870,8 +8888,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="2" t="s">
-        <v>31</v>
+      <c r="V111" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -8885,38 +8903,38 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>247</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="O112" s="2" t="s">
         <v>31</v>
       </c>
@@ -8938,8 +8956,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="2" t="s">
-        <v>31</v>
+      <c r="V112" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -8953,40 +8971,40 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O113" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>31</v>
@@ -9006,8 +9024,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="2" t="s">
-        <v>31</v>
+      <c r="V113" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -9021,22 +9039,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9051,7 +9069,7 @@
         <v>30</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>31</v>
@@ -9074,8 +9092,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="2" t="s">
-        <v>31</v>
+      <c r="V114" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -9089,22 +9107,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9119,10 +9137,10 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>31</v>
@@ -9142,8 +9160,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="2" t="s">
-        <v>31</v>
+      <c r="V115" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -9157,22 +9175,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9187,7 +9205,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>31</v>
@@ -9202,7 +9220,7 @@
         <v>31</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="T116" s="2" t="s">
         <v>31</v>
@@ -9210,8 +9228,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="2" t="s">
-        <v>31</v>
+      <c r="V116" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -9225,22 +9243,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9255,10 +9273,10 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>31</v>
@@ -9278,8 +9296,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="2" t="s">
-        <v>31</v>
+      <c r="V117" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -9293,22 +9311,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9323,10 +9341,10 @@
         <v>30</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>31</v>
@@ -9346,8 +9364,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="2" t="s">
-        <v>31</v>
+      <c r="V118" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -9361,22 +9379,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9391,10 +9409,10 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>31</v>
@@ -9414,8 +9432,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="2" t="s">
-        <v>31</v>
+      <c r="V119" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -9429,22 +9447,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9459,7 +9477,7 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>31</v>
@@ -9474,7 +9492,7 @@
         <v>31</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>31</v>
@@ -9482,8 +9500,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="2" t="s">
-        <v>31</v>
+      <c r="V120" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -9497,22 +9515,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9527,10 +9545,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>31</v>
@@ -9550,8 +9568,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="2" t="s">
-        <v>31</v>
+      <c r="V121" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -9565,22 +9583,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9595,10 +9613,10 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>31</v>
@@ -9618,8 +9636,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="2" t="s">
-        <v>31</v>
+      <c r="V122" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -9633,22 +9651,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9663,10 +9681,10 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>31</v>
@@ -9686,8 +9704,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="2" t="s">
-        <v>31</v>
+      <c r="V123" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
@@ -9701,22 +9719,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9731,10 +9749,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>31</v>
@@ -9746,7 +9764,7 @@
         <v>31</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="T124" s="2" t="s">
         <v>31</v>
@@ -9754,8 +9772,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="2" t="s">
-        <v>31</v>
+      <c r="V124" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -9769,22 +9787,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9799,10 +9817,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>31</v>
@@ -9822,8 +9840,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="2" t="s">
-        <v>31</v>
+      <c r="V125" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
@@ -9837,22 +9855,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9867,10 +9885,10 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>31</v>
@@ -9905,22 +9923,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9935,10 +9953,10 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>31</v>
@@ -9959,7 +9977,7 @@
         <v>33</v>
       </c>
       <c r="V127" s="2" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -9973,22 +9991,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -10003,10 +10021,10 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>31</v>
@@ -10026,8 +10044,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="2" t="s">
-        <v>31</v>
+      <c r="V128" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -10041,22 +10059,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10071,10 +10089,10 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>31</v>
@@ -10094,8 +10112,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="2" t="s">
-        <v>31</v>
+      <c r="V129" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
@@ -10109,22 +10127,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10142,7 +10160,7 @@
         <v>31</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>31</v>
@@ -10154,7 +10172,7 @@
         <v>31</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>31</v>
@@ -10162,8 +10180,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="2" t="s">
-        <v>31</v>
+      <c r="V130" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -10177,22 +10195,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10210,7 +10228,7 @@
         <v>31</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>31</v>
@@ -10230,8 +10248,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="2" t="s">
-        <v>31</v>
+      <c r="V131" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -10245,22 +10263,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="I132" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10275,10 +10293,10 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>31</v>
@@ -10298,8 +10316,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="2" t="s">
-        <v>31</v>
+      <c r="V132" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -10313,22 +10331,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10343,10 +10361,10 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>31</v>
@@ -10366,8 +10384,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="2" t="s">
-        <v>31</v>
+      <c r="V133" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -10381,22 +10399,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10411,7 +10429,7 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>31</v>
@@ -10434,8 +10452,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="2" t="s">
-        <v>291</v>
+      <c r="V134" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135">
@@ -10449,23 +10467,23 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
       </c>
@@ -10479,7 +10497,7 @@
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>31</v>
@@ -10494,7 +10512,7 @@
         <v>31</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>31</v>
@@ -10502,8 +10520,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="2" t="s">
-        <v>31</v>
+      <c r="V135" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -10517,23 +10535,23 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
       </c>
@@ -10547,10 +10565,10 @@
         <v>30</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>31</v>
@@ -10562,7 +10580,7 @@
         <v>31</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="T136" s="2" t="s">
         <v>31</v>
@@ -10570,8 +10588,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="2" t="s">
-        <v>31</v>
+      <c r="V136" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137">
@@ -10585,23 +10603,23 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
       </c>
@@ -10630,7 +10648,7 @@
         <v>31</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T137" s="2" t="s">
         <v>31</v>
@@ -10638,8 +10656,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="2" t="s">
-        <v>31</v>
+      <c r="V137" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -10653,23 +10671,23 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
       </c>
@@ -10686,7 +10704,7 @@
         <v>31</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>31</v>
@@ -10698,7 +10716,7 @@
         <v>31</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="T138" s="2" t="s">
         <v>31</v>
@@ -10706,8 +10724,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="2" t="s">
-        <v>31</v>
+      <c r="V138" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -10721,22 +10739,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10751,7 +10769,7 @@
         <v>30</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>31</v>
@@ -10766,7 +10784,7 @@
         <v>31</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="T139" s="2" t="s">
         <v>31</v>
@@ -10774,8 +10792,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="2" t="s">
-        <v>31</v>
+      <c r="V139" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140">
@@ -10789,22 +10807,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10834,7 +10852,7 @@
         <v>31</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>31</v>
@@ -10842,8 +10860,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="2" t="s">
-        <v>300</v>
+      <c r="V140" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -10857,22 +10875,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10887,10 +10905,10 @@
         <v>30</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>31</v>
@@ -10902,7 +10920,7 @@
         <v>31</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>31</v>
@@ -10910,8 +10928,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="2" t="s">
-        <v>31</v>
+      <c r="V141" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="142">
@@ -10925,61 +10943,61 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S142" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S142" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="T142" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="2" t="s">
-        <v>31</v>
+      <c r="V142" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -10993,61 +11011,333 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V143" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V144" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S143" s="2" t="s">
+      <c r="G145" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U143" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V143" s="2" t="s">
-        <v>31</v>
+      <c r="H145" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BGD.xlsx
+++ b/Excel-XLSX/UN-BGD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>K2jlXn</t>
+    <t>3Vcai7</t>
   </si>
   <si>
     <t>2021</t>
@@ -144,6 +144,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>537900</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -672,7 +675,7 @@
     <t>84</t>
   </si>
   <si>
-    <t>961787</t>
+    <t>971964</t>
   </si>
   <si>
     <t>85</t>
@@ -924,7 +927,7 @@
     <t>143</t>
   </si>
   <si>
-    <t>961729</t>
+    <t>971898</t>
   </si>
   <si>
     <t>144</t>
@@ -1476,8 +1479,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1817,7 +1820,7 @@
         <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1831,22 +1834,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1884,8 +1887,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1899,22 +1902,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1952,8 +1955,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1967,22 +1970,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -2020,8 +2023,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2035,22 +2038,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -2088,8 +2091,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2103,22 +2106,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -2156,8 +2159,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2171,22 +2174,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2201,7 +2204,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>31</v>
@@ -2224,8 +2227,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2239,22 +2242,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2269,7 +2272,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>31</v>
@@ -2292,8 +2295,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2307,22 +2310,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2337,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>31</v>
@@ -2360,8 +2363,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2375,38 +2378,38 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="O16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2428,8 +2431,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2443,22 +2446,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2473,7 +2476,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
@@ -2496,8 +2499,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2511,38 +2514,38 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2564,8 +2567,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2579,22 +2582,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2609,7 +2612,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>31</v>
@@ -2632,8 +2635,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2647,22 +2650,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2677,7 +2680,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>31</v>
@@ -2700,8 +2703,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2718,19 +2721,19 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2745,7 +2748,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>31</v>
@@ -2768,8 +2771,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2783,22 +2786,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2813,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>31</v>
@@ -2836,8 +2839,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2851,22 +2854,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2881,7 +2884,7 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>31</v>
@@ -2904,8 +2907,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2919,22 +2922,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2949,7 +2952,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>31</v>
@@ -2972,8 +2975,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2987,22 +2990,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -3017,7 +3020,7 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>31</v>
@@ -3040,8 +3043,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -3055,22 +3058,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -3085,7 +3088,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>31</v>
@@ -3108,8 +3111,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -3123,22 +3126,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -3153,7 +3156,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>31</v>
@@ -3176,8 +3179,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -3191,22 +3194,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3244,8 +3247,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -3259,22 +3262,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3312,8 +3315,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3327,22 +3330,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3380,8 +3383,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3395,22 +3398,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3448,8 +3451,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3463,22 +3466,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3493,7 +3496,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>31</v>
@@ -3516,8 +3519,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3531,22 +3534,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3561,7 +3564,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>31</v>
@@ -3584,8 +3587,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3599,22 +3602,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3632,7 +3635,7 @@
         <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>31</v>
@@ -3652,8 +3655,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3667,22 +3670,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3697,7 +3700,7 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>31</v>
@@ -3720,8 +3723,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3735,22 +3738,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3788,8 +3791,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3803,22 +3806,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3856,8 +3859,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3871,22 +3874,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3924,8 +3927,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -3939,22 +3942,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3992,8 +3995,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -4007,22 +4010,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -4060,8 +4063,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -4075,22 +4078,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4128,8 +4131,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -4143,22 +4146,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4196,8 +4199,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -4211,22 +4214,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4241,7 +4244,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>31</v>
@@ -4264,8 +4267,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -4279,22 +4282,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4332,8 +4335,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4347,22 +4350,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4400,8 +4403,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4415,22 +4418,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4468,8 +4471,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4483,22 +4486,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4513,7 +4516,7 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>31</v>
@@ -4536,8 +4539,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4551,22 +4554,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4581,7 +4584,7 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>31</v>
@@ -4604,8 +4607,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4619,22 +4622,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4672,8 +4675,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -4687,22 +4690,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4740,8 +4743,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4755,22 +4758,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4785,13 +4788,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>31</v>
@@ -4808,8 +4811,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -4823,22 +4826,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4859,7 +4862,7 @@
         <v>31</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>31</v>
@@ -4876,8 +4879,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -4891,22 +4894,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4921,7 +4924,7 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>31</v>
@@ -4944,8 +4947,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -4959,22 +4962,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4989,13 +4992,13 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>31</v>
@@ -5012,8 +5015,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -5027,22 +5030,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -5057,13 +5060,13 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>31</v>
@@ -5080,8 +5083,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -5095,22 +5098,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5125,13 +5128,13 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>31</v>
@@ -5148,8 +5151,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5163,22 +5166,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5193,13 +5196,13 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>31</v>
@@ -5216,8 +5219,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5231,22 +5234,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5261,13 +5264,13 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>31</v>
@@ -5284,8 +5287,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5299,22 +5302,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5329,13 +5332,13 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>31</v>
@@ -5352,8 +5355,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5367,22 +5370,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5397,13 +5400,13 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>31</v>
@@ -5420,8 +5423,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5435,22 +5438,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5465,13 +5468,13 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>31</v>
@@ -5488,8 +5491,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5503,22 +5506,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5533,13 +5536,13 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>31</v>
@@ -5556,8 +5559,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5571,22 +5574,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5601,13 +5604,13 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>31</v>
@@ -5624,8 +5627,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -5639,22 +5642,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5669,13 +5672,13 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>31</v>
@@ -5692,8 +5695,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5707,22 +5710,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5737,13 +5740,13 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>31</v>
@@ -5760,8 +5763,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -5775,22 +5778,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5805,13 +5808,13 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>31</v>
@@ -5828,8 +5831,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -5843,22 +5846,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5873,13 +5876,13 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>31</v>
@@ -5896,8 +5899,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -5911,22 +5914,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5941,11 +5944,11 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O68" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="P68" s="2" t="s">
         <v>31</v>
       </c>
@@ -5964,8 +5967,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -5979,22 +5982,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -6009,10 +6012,10 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>31</v>
@@ -6032,8 +6035,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -6047,22 +6050,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -6077,7 +6080,7 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>31</v>
@@ -6100,8 +6103,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -6115,22 +6118,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6145,7 +6148,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>31</v>
@@ -6168,8 +6171,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6183,22 +6186,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6213,7 +6216,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>31</v>
@@ -6236,8 +6239,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6251,22 +6254,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6281,7 +6284,7 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>31</v>
@@ -6304,8 +6307,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6319,22 +6322,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6349,7 +6352,7 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>31</v>
@@ -6372,8 +6375,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6387,22 +6390,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6417,10 +6420,10 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>32</v>
@@ -6440,8 +6443,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -6455,22 +6458,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6485,10 +6488,10 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>31</v>
@@ -6508,8 +6511,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -6523,22 +6526,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6553,7 +6556,7 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>31</v>
@@ -6576,8 +6579,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6591,22 +6594,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6621,7 +6624,7 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>31</v>
@@ -6644,8 +6647,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -6659,22 +6662,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6689,7 +6692,7 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>31</v>
@@ -6712,8 +6715,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -6727,22 +6730,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6757,7 +6760,7 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>31</v>
@@ -6780,8 +6783,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -6795,22 +6798,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6825,7 +6828,7 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>31</v>
@@ -6848,8 +6851,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -6863,22 +6866,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6893,7 +6896,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>31</v>
@@ -6916,8 +6919,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -6931,22 +6934,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6961,7 +6964,7 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>31</v>
@@ -6984,8 +6987,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -6999,22 +7002,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -7029,7 +7032,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -7067,22 +7070,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -7097,7 +7100,7 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>31</v>
@@ -7135,22 +7138,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7171,7 +7174,7 @@
         <v>31</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>31</v>
@@ -7188,8 +7191,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -7203,22 +7206,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7256,8 +7259,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7271,22 +7274,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7324,8 +7327,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7339,22 +7342,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7392,8 +7395,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7407,22 +7410,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7460,8 +7463,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7475,22 +7478,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7528,8 +7531,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7543,22 +7546,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7596,8 +7599,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -7611,22 +7614,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7664,8 +7667,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -7679,22 +7682,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7732,8 +7735,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -7747,22 +7750,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7800,8 +7803,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -7815,22 +7818,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7845,7 +7848,7 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>31</v>
@@ -7868,8 +7871,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -7883,22 +7886,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7913,7 +7916,7 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>31</v>
@@ -7936,8 +7939,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -7951,22 +7954,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7981,7 +7984,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>31</v>
@@ -8004,8 +8007,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -8019,22 +8022,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -8049,7 +8052,7 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>31</v>
@@ -8072,8 +8075,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -8087,22 +8090,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -8117,7 +8120,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>31</v>
@@ -8140,8 +8143,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -8155,22 +8158,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8185,7 +8188,7 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>31</v>
@@ -8208,8 +8211,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8223,22 +8226,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8253,7 +8256,7 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>31</v>
@@ -8276,8 +8279,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8291,22 +8294,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8321,7 +8324,7 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>31</v>
@@ -8344,8 +8347,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8359,22 +8362,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8389,13 +8392,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>31</v>
@@ -8412,8 +8415,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8427,22 +8430,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8457,7 +8460,7 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>31</v>
@@ -8480,8 +8483,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8495,22 +8498,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8525,7 +8528,7 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>31</v>
@@ -8548,8 +8551,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -8563,22 +8566,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8593,7 +8596,7 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>31</v>
@@ -8616,8 +8619,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
@@ -8631,22 +8634,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8661,13 +8664,13 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>31</v>
@@ -8684,8 +8687,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -8699,22 +8702,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8729,7 +8732,7 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>31</v>
@@ -8752,8 +8755,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -8767,22 +8770,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8797,7 +8800,7 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>31</v>
@@ -8820,8 +8823,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -8835,22 +8838,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8865,7 +8868,7 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>31</v>
@@ -8888,8 +8891,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -8903,38 +8906,38 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="O112" s="2" t="s">
         <v>31</v>
       </c>
@@ -8956,8 +8959,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -8971,22 +8974,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -9001,7 +9004,7 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>31</v>
@@ -9024,8 +9027,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -9039,22 +9042,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9069,7 +9072,7 @@
         <v>30</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>31</v>
@@ -9092,8 +9095,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -9107,22 +9110,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9137,7 +9140,7 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>31</v>
@@ -9160,8 +9163,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -9175,22 +9178,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9205,7 +9208,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>31</v>
@@ -9228,8 +9231,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117">
@@ -9243,22 +9246,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9273,7 +9276,7 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>31</v>
@@ -9296,8 +9299,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="118">
@@ -9311,22 +9314,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9364,8 +9367,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119">
@@ -9379,22 +9382,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9432,8 +9435,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120">
@@ -9447,22 +9450,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9500,8 +9503,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -9515,22 +9518,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9568,8 +9571,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -9583,22 +9586,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9616,7 +9619,7 @@
         <v>32</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>31</v>
@@ -9636,8 +9639,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -9651,22 +9654,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9681,10 +9684,10 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>31</v>
@@ -9704,8 +9707,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -9719,22 +9722,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9749,10 +9752,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>31</v>
@@ -9772,8 +9775,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="125">
@@ -9787,22 +9790,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9817,10 +9820,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>31</v>
@@ -9840,8 +9843,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126">
@@ -9855,22 +9858,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9885,10 +9888,10 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>31</v>
@@ -9923,22 +9926,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9953,10 +9956,10 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>31</v>
@@ -9991,22 +9994,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -10024,7 +10027,7 @@
         <v>31</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>31</v>
@@ -10044,8 +10047,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -10059,22 +10062,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="I129" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10092,7 +10095,7 @@
         <v>31</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>31</v>
@@ -10112,8 +10115,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -10127,22 +10130,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10180,8 +10183,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -10195,22 +10198,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10228,7 +10231,7 @@
         <v>31</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>31</v>
@@ -10248,8 +10251,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -10263,22 +10266,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10296,7 +10299,7 @@
         <v>31</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>31</v>
@@ -10316,8 +10319,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133">
@@ -10331,22 +10334,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10384,8 +10387,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -10399,22 +10402,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10452,8 +10455,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -10467,22 +10470,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10512,7 +10515,7 @@
         <v>31</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>31</v>
@@ -10520,8 +10523,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -10535,22 +10538,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10580,7 +10583,7 @@
         <v>31</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T136" s="2" t="s">
         <v>31</v>
@@ -10588,8 +10591,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -10603,22 +10606,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10648,7 +10651,7 @@
         <v>31</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="T137" s="2" t="s">
         <v>31</v>
@@ -10656,8 +10659,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -10671,22 +10674,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10716,7 +10719,7 @@
         <v>31</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T138" s="2" t="s">
         <v>31</v>
@@ -10724,8 +10727,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -10739,22 +10742,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10784,7 +10787,7 @@
         <v>31</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T139" s="2" t="s">
         <v>31</v>
@@ -10792,8 +10795,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -10807,22 +10810,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10852,7 +10855,7 @@
         <v>31</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>31</v>
@@ -10860,8 +10863,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -10875,22 +10878,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10920,7 +10923,7 @@
         <v>31</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>31</v>
@@ -10928,8 +10931,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="142">
@@ -10943,22 +10946,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -10988,7 +10991,7 @@
         <v>31</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>31</v>
@@ -10996,8 +10999,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="143">
@@ -11011,22 +11014,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -11056,7 +11059,7 @@
         <v>31</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>31</v>
@@ -11079,22 +11082,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -11124,7 +11127,7 @@
         <v>31</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>31</v>
@@ -11147,22 +11150,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11177,7 +11180,7 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>31</v>
@@ -11200,8 +11203,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -11215,38 +11218,38 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N146" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="O146" s="2" t="s">
         <v>31</v>
       </c>
@@ -11268,8 +11271,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -11283,22 +11286,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11313,7 +11316,7 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>31</v>
@@ -11336,8 +11339,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BGD.xlsx
+++ b/Excel-XLSX/UN-BGD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,55 +90,853 @@
     <t>3Vcai7</t>
   </si>
   <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>104320</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>150680</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>244994</t>
+  </si>
+  <si>
+    <t>8530</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>198823</t>
+  </si>
+  <si>
+    <t>46129</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>116074</t>
+  </si>
+  <si>
+    <t>85300</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>50985</t>
+  </si>
+  <si>
+    <t>61504</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>30578</t>
+  </si>
+  <si>
+    <t>23046</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>21497</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>22174</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>22131</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>21556</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>22106</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>21967</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>19743</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>20402</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>21053</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>26268</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>27544</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>28337</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>228557</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>229226</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>229644</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>230674</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>231125</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>232462</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>231948</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>276198</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>932204</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>906635</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>854764</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>854704</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>472000</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>866518</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>866457</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BGD</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>133</t>
+  </si>
+  <si>
+    <t>174850</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>918898</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>918841</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>472000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>174850</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>952365</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>952309</t>
+  </si>
+  <si>
+    <t>143</t>
   </si>
   <si>
     <t>2023</t>
@@ -147,814 +945,37 @@
     <t>537900</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>160000</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>150680</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>244994</t>
-  </si>
-  <si>
-    <t>8530</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>198823</t>
-  </si>
-  <si>
-    <t>46129</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>116074</t>
-  </si>
-  <si>
-    <t>85300</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>50985</t>
-  </si>
-  <si>
-    <t>61504</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>30578</t>
-  </si>
-  <si>
-    <t>23046</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>21497</t>
-  </si>
-  <si>
-    <t>10070</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>22174</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>22131</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>21556</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>22106</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>21967</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>19743</t>
-  </si>
-  <si>
-    <t>3231</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>20402</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>21053</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>26268</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>27544</t>
-  </si>
-  <si>
-    <t>28337</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>228557</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>229226</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>229644</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>230674</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>231125</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>232462</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>231948</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>276198</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>932204</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>906635</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>854764</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>866518</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>918898</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>952365</t>
-  </si>
-  <si>
-    <t>84</t>
+    <t>144</t>
   </si>
   <si>
     <t>971964</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>104320</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>854704</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>866457</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>918841</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>952309</t>
-  </si>
-  <si>
-    <t>143</t>
+    <t>146</t>
   </si>
   <si>
     <t>971898</t>
   </si>
   <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>146</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>984632</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>984591</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1360,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V147"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1459,10 +1480,10 @@
         <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>31</v>
@@ -1494,22 +1515,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1524,13 +1545,13 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>31</v>
@@ -1562,22 +1583,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1592,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>31</v>
@@ -1616,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1630,22 +1651,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1666,7 +1687,7 @@
         <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>31</v>
@@ -1684,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1698,22 +1719,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1728,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>31</v>
@@ -1752,7 +1773,7 @@
         <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1766,22 +1787,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1796,7 +1817,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>31</v>
@@ -1820,7 +1841,7 @@
         <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1834,22 +1855,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1864,10 +1885,10 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>31</v>
@@ -1902,22 +1923,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1932,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
@@ -1970,22 +1991,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -2000,13 +2021,13 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>31</v>
@@ -2038,22 +2059,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -2068,10 +2089,10 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
@@ -2106,37 +2127,37 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>31</v>
@@ -2174,22 +2195,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2204,13 +2225,13 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>31</v>
@@ -2242,22 +2263,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2272,7 +2293,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>31</v>
@@ -2310,22 +2331,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2340,7 +2361,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>31</v>
@@ -2378,22 +2399,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2408,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>31</v>
@@ -2446,37 +2467,37 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
@@ -2514,22 +2535,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2544,13 +2565,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>31</v>
@@ -2582,22 +2603,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2612,13 +2633,13 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>31</v>
@@ -2650,22 +2671,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2680,7 +2701,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>31</v>
@@ -2721,19 +2742,19 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2748,7 +2769,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>31</v>
@@ -2786,22 +2807,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2816,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>31</v>
@@ -2854,22 +2875,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2884,13 +2905,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>31</v>
@@ -2922,22 +2943,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2952,7 +2973,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>31</v>
@@ -2990,22 +3011,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -3020,7 +3041,7 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>31</v>
@@ -3058,22 +3079,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -3088,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>31</v>
@@ -3126,22 +3147,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -3156,13 +3177,13 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>31</v>
@@ -3194,22 +3215,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3224,13 +3245,13 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>31</v>
@@ -3262,22 +3283,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3292,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>31</v>
@@ -3330,22 +3351,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3360,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>31</v>
@@ -3398,22 +3419,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3428,13 +3449,13 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>31</v>
@@ -3466,22 +3487,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3496,7 +3517,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>31</v>
@@ -3534,22 +3555,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3564,7 +3585,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>31</v>
@@ -3602,40 +3623,40 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O34" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>31</v>
@@ -3670,22 +3691,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3700,13 +3721,13 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>31</v>
@@ -3738,22 +3759,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3768,7 +3789,7 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>31</v>
@@ -3806,22 +3827,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3836,7 +3857,7 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>31</v>
@@ -3874,22 +3895,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3904,7 +3925,7 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>31</v>
@@ -3942,22 +3963,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3972,7 +3993,7 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>31</v>
@@ -4010,22 +4031,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -4040,13 +4061,13 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>31</v>
@@ -4078,22 +4099,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4108,10 +4129,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>31</v>
@@ -4146,22 +4167,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4176,13 +4197,13 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>31</v>
@@ -4214,22 +4235,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4244,7 +4265,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>31</v>
@@ -4282,22 +4303,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4312,13 +4333,13 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>31</v>
@@ -4350,22 +4371,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4380,7 +4401,7 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>31</v>
@@ -4418,22 +4439,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4448,13 +4469,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>31</v>
@@ -4486,22 +4507,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4516,7 +4537,7 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>31</v>
@@ -4554,22 +4575,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4584,13 +4605,13 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>31</v>
@@ -4622,22 +4643,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4652,7 +4673,7 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>31</v>
@@ -4690,37 +4711,37 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>31</v>
@@ -4758,22 +4779,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4788,13 +4809,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>31</v>
@@ -4826,22 +4847,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4856,13 +4877,13 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>31</v>
@@ -4894,22 +4915,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4924,7 +4945,7 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>31</v>
@@ -4962,22 +4983,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4992,13 +5013,13 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>31</v>
@@ -5030,22 +5051,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -5060,13 +5081,13 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>31</v>
@@ -5098,22 +5119,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5128,13 +5149,13 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>31</v>
@@ -5166,22 +5187,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5196,13 +5217,13 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>31</v>
@@ -5234,22 +5255,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5264,13 +5285,13 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>31</v>
@@ -5302,22 +5323,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5332,13 +5353,13 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>31</v>
@@ -5370,22 +5391,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5400,13 +5421,13 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>31</v>
@@ -5438,22 +5459,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5468,13 +5489,13 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>31</v>
@@ -5506,22 +5527,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5536,13 +5557,13 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>31</v>
@@ -5574,22 +5595,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5604,13 +5625,13 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>31</v>
@@ -5619,7 +5640,7 @@
         <v>31</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>31</v>
@@ -5642,22 +5663,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5672,13 +5693,13 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>31</v>
@@ -5710,22 +5731,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5740,13 +5761,13 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>31</v>
@@ -5778,22 +5799,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5808,13 +5829,13 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>31</v>
@@ -5846,22 +5867,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5876,13 +5897,13 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>31</v>
@@ -5914,22 +5935,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5944,10 +5965,10 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>31</v>
@@ -5982,22 +6003,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -6012,10 +6033,10 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>31</v>
@@ -6027,7 +6048,7 @@
         <v>31</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>31</v>
@@ -6050,22 +6071,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -6080,10 +6101,10 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>31</v>
@@ -6118,22 +6139,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6148,7 +6169,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>31</v>
@@ -6186,22 +6207,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6216,10 +6237,10 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>31</v>
@@ -6254,22 +6275,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6284,10 +6305,10 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>31</v>
@@ -6322,22 +6343,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6352,7 +6373,7 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>31</v>
@@ -6390,22 +6411,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6420,13 +6441,13 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>31</v>
@@ -6435,7 +6456,7 @@
         <v>31</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>31</v>
@@ -6458,22 +6479,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6488,7 +6509,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>54</v>
@@ -6526,22 +6547,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6556,7 +6577,7 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>31</v>
@@ -6594,22 +6615,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6624,10 +6645,10 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>31</v>
@@ -6662,22 +6683,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6692,10 +6713,10 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>31</v>
@@ -6730,22 +6751,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6760,10 +6781,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>31</v>
@@ -6798,22 +6819,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6828,7 +6849,7 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>31</v>
@@ -6866,22 +6887,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6896,7 +6917,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>31</v>
@@ -6934,22 +6955,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6964,7 +6985,7 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>31</v>
@@ -7002,22 +7023,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -7032,10 +7053,10 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>31</v>
@@ -7070,22 +7091,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -7100,7 +7121,7 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>31</v>
@@ -7138,22 +7159,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7168,13 +7189,13 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>31</v>
@@ -7206,22 +7227,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7236,10 +7257,10 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>31</v>
@@ -7274,22 +7295,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7304,7 +7325,7 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>31</v>
@@ -7342,22 +7363,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7372,7 +7393,7 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>31</v>
@@ -7410,22 +7431,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7440,7 +7461,7 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>31</v>
@@ -7478,22 +7499,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7508,7 +7529,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>31</v>
@@ -7546,22 +7567,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7576,7 +7597,7 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>31</v>
@@ -7614,22 +7635,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7644,7 +7665,7 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>31</v>
@@ -7682,22 +7703,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7712,7 +7733,7 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>31</v>
@@ -7750,22 +7771,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7780,7 +7801,7 @@
         <v>30</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>31</v>
@@ -7818,22 +7839,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7848,7 +7869,7 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>31</v>
@@ -7886,22 +7907,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7916,7 +7937,7 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>31</v>
@@ -7954,22 +7975,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7984,7 +8005,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>31</v>
@@ -8022,22 +8043,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -8052,13 +8073,13 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>31</v>
@@ -8090,22 +8111,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -8120,7 +8141,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>31</v>
@@ -8158,22 +8179,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8188,13 +8209,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>31</v>
@@ -8226,22 +8247,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8256,7 +8277,7 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>31</v>
@@ -8294,37 +8315,37 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>31</v>
@@ -8362,22 +8383,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8392,13 +8413,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>31</v>
@@ -8430,43 +8451,43 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N105" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="O105" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>31</v>
@@ -8498,22 +8519,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8528,7 +8549,7 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>31</v>
@@ -8566,22 +8587,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8596,10 +8617,10 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>31</v>
@@ -8634,22 +8655,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8664,13 +8685,13 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>31</v>
@@ -8702,22 +8723,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8732,7 +8753,7 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>31</v>
@@ -8770,22 +8791,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8800,7 +8821,7 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>31</v>
@@ -8838,22 +8859,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8868,7 +8889,7 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>31</v>
@@ -8906,22 +8927,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8936,7 +8957,7 @@
         <v>30</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>31</v>
@@ -8974,22 +8995,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -9004,10 +9025,10 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>31</v>
@@ -9042,22 +9063,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9072,7 +9093,7 @@
         <v>30</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>31</v>
@@ -9110,22 +9131,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9140,10 +9161,10 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>31</v>
@@ -9178,22 +9199,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9208,7 +9229,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>31</v>
@@ -9223,7 +9244,7 @@
         <v>31</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="T116" s="2" t="s">
         <v>31</v>
@@ -9246,40 +9267,40 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="H117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O117" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>31</v>
@@ -9314,22 +9335,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9344,10 +9365,10 @@
         <v>30</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>31</v>
@@ -9382,22 +9403,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9412,10 +9433,10 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>31</v>
@@ -9450,22 +9471,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9480,7 +9501,7 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>31</v>
@@ -9495,7 +9516,7 @@
         <v>31</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>31</v>
@@ -9518,22 +9539,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9548,10 +9569,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>31</v>
@@ -9586,22 +9607,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9616,10 +9637,10 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>31</v>
@@ -9654,22 +9675,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9684,10 +9705,10 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>31</v>
@@ -9722,22 +9743,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9752,10 +9773,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>31</v>
@@ -9767,7 +9788,7 @@
         <v>31</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="T124" s="2" t="s">
         <v>31</v>
@@ -9790,22 +9811,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9820,10 +9841,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>31</v>
@@ -9858,22 +9879,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9888,10 +9909,10 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>31</v>
@@ -9926,22 +9947,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9956,7 +9977,7 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>31</v>
@@ -9980,7 +10001,7 @@
         <v>33</v>
       </c>
       <c r="V127" s="2" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128">
@@ -9994,22 +10015,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -10024,10 +10045,10 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>31</v>
@@ -10062,22 +10083,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>273</v>
+        <v>59</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>274</v>
+        <v>60</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>274</v>
+        <v>60</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10092,10 +10113,10 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>31</v>
@@ -10130,22 +10151,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10163,7 +10184,7 @@
         <v>31</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>31</v>
@@ -10175,7 +10196,7 @@
         <v>31</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>31</v>
@@ -10198,22 +10219,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10231,7 +10252,7 @@
         <v>31</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>31</v>
@@ -10266,22 +10287,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10296,10 +10317,10 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>31</v>
@@ -10334,22 +10355,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10364,10 +10385,10 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>31</v>
@@ -10402,22 +10423,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10432,7 +10453,7 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>31</v>
@@ -10456,7 +10477,7 @@
         <v>33</v>
       </c>
       <c r="V134" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135">
@@ -10470,22 +10491,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10500,7 +10521,7 @@
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>31</v>
@@ -10515,7 +10536,7 @@
         <v>31</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>31</v>
@@ -10538,22 +10559,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10568,10 +10589,10 @@
         <v>30</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>31</v>
@@ -10583,7 +10604,7 @@
         <v>31</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="T136" s="2" t="s">
         <v>31</v>
@@ -10606,22 +10627,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10651,7 +10672,7 @@
         <v>31</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="T137" s="2" t="s">
         <v>31</v>
@@ -10674,22 +10695,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10707,7 +10728,7 @@
         <v>31</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>31</v>
@@ -10719,7 +10740,7 @@
         <v>31</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="T138" s="2" t="s">
         <v>31</v>
@@ -10742,22 +10763,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10772,7 +10793,7 @@
         <v>30</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>31</v>
@@ -10787,7 +10808,7 @@
         <v>31</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="T139" s="2" t="s">
         <v>31</v>
@@ -10810,22 +10831,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10855,7 +10876,7 @@
         <v>31</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>31</v>
@@ -10864,7 +10885,7 @@
         <v>33</v>
       </c>
       <c r="V140" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141">
@@ -10878,22 +10899,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E141" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="G141" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10908,10 +10929,10 @@
         <v>30</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>31</v>
@@ -10923,7 +10944,7 @@
         <v>31</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>31</v>
@@ -10946,22 +10967,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -10976,10 +10997,10 @@
         <v>30</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>31</v>
@@ -10991,7 +11012,7 @@
         <v>31</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>31</v>
@@ -11014,22 +11035,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -11059,7 +11080,7 @@
         <v>31</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>31</v>
@@ -11082,22 +11103,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -11127,7 +11148,7 @@
         <v>31</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>31</v>
@@ -11136,7 +11157,7 @@
         <v>33</v>
       </c>
       <c r="V144" s="2" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145">
@@ -11150,22 +11171,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>308</v>
+        <v>39</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11180,7 +11201,7 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>31</v>
@@ -11218,22 +11239,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>307</v>
+        <v>60</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11248,7 +11269,7 @@
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>31</v>
@@ -11286,60 +11307,400 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S147" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I147" s="1" t="s">
+      <c r="T147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V149" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U147" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V147" s="2" t="s">
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V150" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V151" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V152" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-BGD.xlsx
+++ b/Excel-XLSX/UN-BGD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3Vcai7</t>
+    <t>5hC7pC</t>
   </si>
   <si>
     <t>1974</t>
@@ -963,19 +963,25 @@
     <t>148</t>
   </si>
   <si>
+    <t>544641</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
-    <t>984632</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
+    <t>1005561</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>984591</t>
+    <t>152</t>
+  </si>
+  <si>
+    <t>1005520</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1366,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V152"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -11405,10 +11411,10 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>31</v>
@@ -11497,7 +11503,7 @@
         <v>33</v>
       </c>
       <c r="V149" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150">
@@ -11511,22 +11517,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -11541,10 +11547,10 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>31</v>
@@ -11585,16 +11591,16 @@
         <v>313</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11609,10 +11615,10 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>31</v>
@@ -11647,60 +11653,128 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V152" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I153" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S152" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="T152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U152" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V152" s="2" t="s">
+      <c r="J153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V153" s="2" t="s">
         <v>31</v>
       </c>
     </row>
